--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA\Documents\UiPath\SH_PO Exporting\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616ADF51-AEBF-42C2-9695-A1D8D7C75009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E69C86-8C34-4111-8259-8C974AA7A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="405" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="545">
   <si>
     <t>Date Exported &amp; Sent</t>
   </si>
@@ -140,15 +141,6 @@
     <t>heather@gmesemi.com</t>
   </si>
   <si>
-    <t>CHIYODA ELECTRONIC (HK) LTD</t>
-  </si>
-  <si>
-    <t>MS PRUDENCE</t>
-  </si>
-  <si>
-    <t>Prudence Ho &lt;prudence@chiyodas.com.hk&gt;</t>
-  </si>
-  <si>
     <t>CMKC (HK) LIMITED</t>
   </si>
   <si>
@@ -255,9 +247,6 @@
   </si>
   <si>
     <t>PO BALANCE JULY 2025-CHANGZHOU GALAXY CENTURY MICRO</t>
-  </si>
-  <si>
-    <t>PO BALANCE JULY 2025-CHIYODA ELECTRONIC (HK) LTD</t>
   </si>
   <si>
     <t>PO BALANCE JULY 2025-CMKC (HK) LIMITED</t>
@@ -2199,7 +2188,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2486,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2558,10 +2567,10 @@
         <v>1170128</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
@@ -2570,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,19 +2589,19 @@
         <v>1170124</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2658,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,14 +2711,14 @@
         <v>33</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="14">
-        <v>1170135</v>
+        <v>1170008</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>34</v>
@@ -2717,19 +2726,21 @@
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14">
-        <v>1170008</v>
+        <v>1170079</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
@@ -2737,138 +2748,136 @@
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>74</v>
+      <c r="G11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="14">
-        <v>1170079</v>
+        <v>1170251</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>75</v>
+      <c r="G12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="30"/>
       <c r="C13" s="14">
-        <v>1170251</v>
+        <v>1170009</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14">
+        <v>1170159</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="14">
-        <v>1170009</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>77</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="14">
-        <v>1170159</v>
+        <v>1170011</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="10" t="s">
-        <v>79</v>
+      <c r="G15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="30"/>
       <c r="C16" s="14">
-        <v>1170011</v>
+        <v>1170257</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="20" t="s">
         <v>56</v>
       </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="30"/>
       <c r="C17" s="14">
-        <v>1170257</v>
+        <v>1170268</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="6" t="s">
         <v>81</v>
       </c>
@@ -2877,7 +2886,7 @@
       <c r="A18" s="38"/>
       <c r="B18" s="30"/>
       <c r="C18" s="14">
-        <v>1170268</v>
+        <v>1170048</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>82</v>
@@ -2885,11 +2894,11 @@
       <c r="E18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2897,7 +2906,7 @@
       <c r="A19" s="38"/>
       <c r="B19" s="30"/>
       <c r="C19" s="14">
-        <v>1170048</v>
+        <v>1170014</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>86</v>
@@ -2905,7 +2914,7 @@
       <c r="E19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="8" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="16"/>
@@ -2917,7 +2926,7 @@
       <c r="A20" s="38"/>
       <c r="B20" s="30"/>
       <c r="C20" s="14">
-        <v>1170014</v>
+        <v>1170066</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>90</v>
@@ -2925,19 +2934,21 @@
       <c r="E20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="14">
-        <v>1170066</v>
+        <v>1170070</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>94</v>
@@ -2945,43 +2956,41 @@
       <c r="E21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="56" t="s">
-        <v>60</v>
+      <c r="G21" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="14">
-        <v>1170070</v>
+        <v>1170260</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="F22" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="14">
-        <v>1170260</v>
+        <v>1170144</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>103</v>
@@ -2992,74 +3001,74 @@
       <c r="F23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="H23" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="14">
-        <v>1170144</v>
+        <v>1170067</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="G24" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="H24" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="14">
-        <v>1170067</v>
+        <v>1170145</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="H25" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="14">
-        <v>1170145</v>
+        <v>1170106</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3067,7 +3076,7 @@
       <c r="A27" s="38"/>
       <c r="B27" s="30"/>
       <c r="C27" s="14">
-        <v>1170106</v>
+        <v>1170020</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>122</v>
@@ -3075,32 +3084,32 @@
       <c r="E27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="23" t="s">
         <v>125</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="30"/>
       <c r="C28" s="14">
-        <v>1170020</v>
+        <v>1170125</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="8" t="s">
         <v>129</v>
       </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="10" t="s">
         <v>130</v>
       </c>
@@ -3109,9 +3118,9 @@
       <c r="A29" s="38"/>
       <c r="B29" s="30"/>
       <c r="C29" s="14">
-        <v>1170125</v>
-      </c>
-      <c r="D29" s="7" t="s">
+        <v>1170126</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>131</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3120,7 +3129,7 @@
       <c r="F29" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="10" t="s">
         <v>134</v>
       </c>
@@ -3128,63 +3137,63 @@
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="14">
-        <v>1170126</v>
-      </c>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="26">
+        <v>1170022</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="58" t="s">
         <v>138</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="26">
-        <v>1170022</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="14">
+        <v>1170024</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="F31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="G31" s="29" t="s">
         <v>143</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="30"/>
       <c r="C32" s="14">
-        <v>1170024</v>
+        <v>1170151</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="29" t="s">
         <v>147</v>
       </c>
+      <c r="G32" s="16"/>
       <c r="H32" s="10" t="s">
         <v>148</v>
       </c>
@@ -3193,7 +3202,7 @@
       <c r="A33" s="38"/>
       <c r="B33" s="30"/>
       <c r="C33" s="14">
-        <v>1170151</v>
+        <v>1170023</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>149</v>
@@ -3204,139 +3213,139 @@
       <c r="F33" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="H33" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="30"/>
       <c r="C34" s="14">
-        <v>1170023</v>
+        <v>1170242</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="31" t="s">
         <v>156</v>
       </c>
+      <c r="G34" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="H34" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="30"/>
       <c r="C35" s="14">
-        <v>1170242</v>
+        <v>1170215</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="30"/>
       <c r="C36" s="14">
-        <v>1170215</v>
+        <v>1170225</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="16" t="s">
         <v>166</v>
       </c>
+      <c r="G36" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="H36" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="30"/>
       <c r="C37" s="14">
-        <v>1170225</v>
+        <v>1170133</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="31" t="s">
         <v>171</v>
       </c>
+      <c r="G37" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H37" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="30"/>
       <c r="C38" s="14">
-        <v>1170133</v>
+        <v>1170160</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="30"/>
       <c r="C39" s="14">
-        <v>1170160</v>
+        <v>1170262</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="16" t="s">
         <v>181</v>
       </c>
+      <c r="G39" s="16"/>
       <c r="H39" s="10" t="s">
         <v>182</v>
       </c>
@@ -3345,7 +3354,7 @@
       <c r="A40" s="38"/>
       <c r="B40" s="30"/>
       <c r="C40" s="14">
-        <v>1170262</v>
+        <v>1170081</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>183</v>
@@ -3353,94 +3362,96 @@
       <c r="E40" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="31" t="s">
+        <v>186</v>
+      </c>
       <c r="H40" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="30"/>
       <c r="C41" s="14">
-        <v>1170081</v>
+        <v>1170161</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="30"/>
       <c r="C42" s="14">
-        <v>1170161</v>
+        <v>1170078</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="F42" s="8" t="s">
         <v>195</v>
       </c>
+      <c r="G42" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H42" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="30"/>
       <c r="C43" s="14">
-        <v>1170078</v>
+        <v>1170167</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="51" t="s">
         <v>200</v>
       </c>
+      <c r="G43" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="H43" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="30"/>
       <c r="C44" s="14">
-        <v>1170167</v>
+        <v>1170057</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>205</v>
@@ -3453,7 +3464,7 @@
       <c r="A45" s="38"/>
       <c r="B45" s="30"/>
       <c r="C45" s="14">
-        <v>1170057</v>
+        <v>1170068</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>207</v>
@@ -3461,34 +3472,32 @@
       <c r="E45" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="31" t="s">
-        <v>209</v>
+      <c r="G45" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="30"/>
       <c r="C46" s="14">
-        <v>1170068</v>
+        <v>1170267</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G46" s="16" t="s">
         <v>214</v>
       </c>
+      <c r="G46" s="16"/>
       <c r="H46" s="10" t="s">
         <v>215</v>
       </c>
@@ -3497,7 +3506,7 @@
       <c r="A47" s="38"/>
       <c r="B47" s="30"/>
       <c r="C47" s="14">
-        <v>1170267</v>
+        <v>1170030</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>216</v>
@@ -3508,29 +3517,29 @@
       <c r="F47" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="31" t="s">
+        <v>219</v>
+      </c>
       <c r="H47" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="30"/>
       <c r="C48" s="14">
-        <v>1170030</v>
+        <v>1170031</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="F48" s="51" t="s">
         <v>223</v>
       </c>
+      <c r="G48" s="16"/>
       <c r="H48" s="10" t="s">
         <v>224</v>
       </c>
@@ -3539,7 +3548,7 @@
       <c r="A49" s="38"/>
       <c r="B49" s="30"/>
       <c r="C49" s="14">
-        <v>1170031</v>
+        <v>1170266</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>225</v>
@@ -3547,54 +3556,54 @@
       <c r="E49" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="31" t="s">
+        <v>228</v>
+      </c>
       <c r="H49" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="30"/>
       <c r="C50" s="14">
-        <v>1170266</v>
+        <v>1170170</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="30"/>
       <c r="C51" s="14">
-        <v>1170170</v>
+        <v>1170088</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G51" s="31" t="s">
         <v>237</v>
       </c>
+      <c r="G51" s="16"/>
       <c r="H51" s="10" t="s">
         <v>238</v>
       </c>
@@ -3603,7 +3612,7 @@
       <c r="A52" s="38"/>
       <c r="B52" s="30"/>
       <c r="C52" s="14">
-        <v>1170088</v>
+        <v>1170122</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>239</v>
@@ -3623,7 +3632,7 @@
       <c r="A53" s="38"/>
       <c r="B53" s="30"/>
       <c r="C53" s="14">
-        <v>1170122</v>
+        <v>1170089</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>243</v>
@@ -3634,29 +3643,29 @@
       <c r="F53" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="16" t="s">
+        <v>246</v>
+      </c>
       <c r="H53" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="30"/>
       <c r="C54" s="14">
-        <v>1170089</v>
+        <v>1170034</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G54" s="16" t="s">
         <v>250</v>
       </c>
+      <c r="G54" s="16"/>
       <c r="H54" s="10" t="s">
         <v>251</v>
       </c>
@@ -3665,7 +3674,7 @@
       <c r="A55" s="38"/>
       <c r="B55" s="30"/>
       <c r="C55" s="14">
-        <v>1170034</v>
+        <v>1170035</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>252</v>
@@ -3676,73 +3685,73 @@
       <c r="F55" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="H55" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="30"/>
       <c r="C56" s="14">
-        <v>1170035</v>
+        <v>1170036</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="30"/>
       <c r="C57" s="14">
-        <v>1170036</v>
+        <v>1170179</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="31" t="s">
         <v>264</v>
       </c>
+      <c r="G57" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="H57" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="30"/>
       <c r="C58" s="14">
-        <v>1170179</v>
+        <v>1170180</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="16" t="s">
         <v>269</v>
       </c>
+      <c r="G58" s="16"/>
       <c r="H58" s="10" t="s">
         <v>270</v>
       </c>
@@ -3751,7 +3760,7 @@
       <c r="A59" s="38"/>
       <c r="B59" s="30"/>
       <c r="C59" s="14">
-        <v>1170180</v>
+        <v>1170038</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>271</v>
@@ -3762,65 +3771,65 @@
       <c r="F59" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="31" t="s">
+        <v>274</v>
+      </c>
       <c r="H59" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="30"/>
       <c r="C60" s="14">
-        <v>1170038</v>
+        <v>1170181</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="30"/>
       <c r="C61" s="14">
-        <v>1170181</v>
+        <v>1170189</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E61" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G61" s="16"/>
+      <c r="H61" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="30"/>
       <c r="C62" s="14">
-        <v>1170189</v>
+        <v>1170184</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E62" s="3"/>
       <c r="F62" s="8" t="s">
         <v>286</v>
       </c>
@@ -3833,7 +3842,7 @@
       <c r="A63" s="38"/>
       <c r="B63" s="30"/>
       <c r="C63" s="14">
-        <v>1170184</v>
+        <v>1170185</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>288</v>
@@ -3844,73 +3853,73 @@
       <c r="F63" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="31" t="s">
+        <v>291</v>
+      </c>
       <c r="H63" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="30"/>
       <c r="C64" s="14">
-        <v>1170185</v>
+        <v>1170187</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="30"/>
       <c r="C65" s="14">
-        <v>1170187</v>
+        <v>1170040</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="30"/>
       <c r="C66" s="14">
-        <v>1170040</v>
+        <v>1170190</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" s="31" t="s">
         <v>305</v>
       </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="10" t="s">
         <v>306</v>
       </c>
@@ -3919,7 +3928,7 @@
       <c r="A67" s="38"/>
       <c r="B67" s="30"/>
       <c r="C67" s="14">
-        <v>1170190</v>
+        <v>1170196</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>307</v>
@@ -3930,29 +3939,29 @@
       <c r="F67" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G67" s="16"/>
+      <c r="G67" s="16" t="s">
+        <v>310</v>
+      </c>
       <c r="H67" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="30"/>
       <c r="C68" s="14">
-        <v>1170196</v>
+        <v>1170174</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F68" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="F68" s="16" t="s">
         <v>314</v>
       </c>
+      <c r="G68" s="16"/>
       <c r="H68" s="10" t="s">
         <v>315</v>
       </c>
@@ -3961,7 +3970,7 @@
       <c r="A69" s="38"/>
       <c r="B69" s="30"/>
       <c r="C69" s="14">
-        <v>1170174</v>
+        <v>1170043</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>316</v>
@@ -3969,7 +3978,7 @@
       <c r="E69" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="51" t="s">
         <v>318</v>
       </c>
       <c r="G69" s="16"/>
@@ -3981,7 +3990,7 @@
       <c r="A70" s="38"/>
       <c r="B70" s="30"/>
       <c r="C70" s="14">
-        <v>1170043</v>
+        <v>1170120</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>320</v>
@@ -3989,142 +3998,142 @@
       <c r="E70" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F70" s="51" t="s">
+      <c r="F70" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G70" s="16"/>
+      <c r="G70" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="H70" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="30"/>
       <c r="C71" s="14">
-        <v>1170120</v>
+        <v>1170077</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="30"/>
       <c r="C72" s="14">
-        <v>1170077</v>
+        <v>1170046</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F72" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="F72" s="51" t="s">
+        <v>332</v>
+      </c>
       <c r="G72" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="H72" s="10" t="s">
         <v>333</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="30"/>
       <c r="C73" s="14">
-        <v>1170046</v>
+        <v>1170201</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F73" s="51" t="s">
         <v>336</v>
       </c>
+      <c r="F73" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="G73" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="H73" s="28" t="s">
         <v>338</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="30"/>
       <c r="C74" s="14">
-        <v>1170201</v>
+        <v>1170047</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="30"/>
       <c r="C75" s="14">
-        <v>1170047</v>
+        <v>1170202</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F75" s="8" t="s">
         <v>346</v>
       </c>
+      <c r="F75" s="51" t="s">
+        <v>347</v>
+      </c>
       <c r="G75" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="30"/>
       <c r="C76" s="14">
-        <v>1170202</v>
+        <v>1170203</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F76" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="F76" s="8" t="s">
         <v>352</v>
       </c>
+      <c r="G76" s="16"/>
       <c r="H76" s="10" t="s">
         <v>353</v>
       </c>
@@ -4133,7 +4142,7 @@
       <c r="A77" s="38"/>
       <c r="B77" s="30"/>
       <c r="C77" s="14">
-        <v>1170203</v>
+        <v>1170072</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>354</v>
@@ -4153,7 +4162,7 @@
       <c r="A78" s="38"/>
       <c r="B78" s="30"/>
       <c r="C78" s="14">
-        <v>1170072</v>
+        <v>1170049</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>358</v>
@@ -4164,51 +4173,51 @@
       <c r="F78" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="31" t="s">
+        <v>361</v>
+      </c>
       <c r="H78" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="30"/>
       <c r="C79" s="14">
-        <v>1170049</v>
+        <v>1170206</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F79" s="8" t="s">
         <v>364</v>
       </c>
+      <c r="F79" s="51" t="s">
+        <v>365</v>
+      </c>
       <c r="G79" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="30"/>
       <c r="C80" s="14">
-        <v>1170206</v>
+        <v>1170166</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F80" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="G80" s="31" t="s">
         <v>370</v>
       </c>
+      <c r="G80" s="16"/>
       <c r="H80" s="10" t="s">
         <v>371</v>
       </c>
@@ -4217,7 +4226,7 @@
       <c r="A81" s="38"/>
       <c r="B81" s="30"/>
       <c r="C81" s="14">
-        <v>1170166</v>
+        <v>1170095</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>372</v>
@@ -4228,66 +4237,68 @@
       <c r="F81" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="31" t="s">
+        <v>375</v>
+      </c>
       <c r="H81" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="30"/>
       <c r="C82" s="14">
-        <v>1170095</v>
+        <v>1170050</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F82" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="F82" s="8" t="s">
         <v>379</v>
       </c>
+      <c r="G82" s="16" t="s">
+        <v>380</v>
+      </c>
       <c r="H82" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="30"/>
       <c r="C83" s="14">
-        <v>1170050</v>
+        <v>1170229</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F83" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="F83" s="51" t="s">
         <v>384</v>
       </c>
+      <c r="G83" s="31" t="s">
+        <v>385</v>
+      </c>
       <c r="H83" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="30"/>
       <c r="C84" s="14">
-        <v>1170229</v>
+        <v>1170208</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F84" s="51" t="s">
         <v>388</v>
@@ -4303,40 +4314,40 @@
       <c r="A85" s="38"/>
       <c r="B85" s="30"/>
       <c r="C85" s="14">
-        <v>1170208</v>
+        <v>1170051</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>391</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F85" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="F85" s="8" t="s">
         <v>393</v>
       </c>
+      <c r="G85" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="H85" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="30"/>
       <c r="C86" s="14">
-        <v>1170051</v>
+        <v>1170052</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="F86" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G86" s="31" t="s">
         <v>398</v>
       </c>
       <c r="H86" s="10" t="s">
@@ -4347,7 +4358,7 @@
       <c r="A87" s="38"/>
       <c r="B87" s="30"/>
       <c r="C87" s="14">
-        <v>1170052</v>
+        <v>1170053</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>400</v>
@@ -4355,34 +4366,32 @@
       <c r="E87" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F87" s="51" t="s">
+      <c r="F87" s="8" t="s">
         <v>402</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="30"/>
       <c r="C88" s="14">
-        <v>1170053</v>
+        <v>2170016</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G88" s="31" t="s">
         <v>407</v>
       </c>
+      <c r="G88" s="16"/>
       <c r="H88" s="10" t="s">
         <v>408</v>
       </c>
@@ -4391,7 +4400,7 @@
       <c r="A89" s="38"/>
       <c r="B89" s="30"/>
       <c r="C89" s="14">
-        <v>2170016</v>
+        <v>2170011</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>409</v>
@@ -4411,7 +4420,7 @@
       <c r="A90" s="38"/>
       <c r="B90" s="30"/>
       <c r="C90" s="14">
-        <v>2170011</v>
+        <v>2170003</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>413</v>
@@ -4422,29 +4431,29 @@
       <c r="F90" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="31" t="s">
+        <v>416</v>
+      </c>
       <c r="H90" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="30"/>
       <c r="C91" s="14">
-        <v>2170003</v>
+        <v>1170258</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="G91" s="31" t="s">
         <v>420</v>
       </c>
+      <c r="G91" s="16"/>
       <c r="H91" s="10" t="s">
         <v>421</v>
       </c>
@@ -4453,7 +4462,7 @@
       <c r="A92" s="38"/>
       <c r="B92" s="30"/>
       <c r="C92" s="14">
-        <v>1170258</v>
+        <v>1170121</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>422</v>
@@ -4464,29 +4473,29 @@
       <c r="F92" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="G92" s="16"/>
+      <c r="G92" s="31" t="s">
+        <v>425</v>
+      </c>
       <c r="H92" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="30"/>
       <c r="C93" s="14">
-        <v>1170121</v>
+        <v>1170093</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G93" s="31" t="s">
         <v>429</v>
       </c>
+      <c r="G93" s="16"/>
       <c r="H93" s="10" t="s">
         <v>430</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="A94" s="38"/>
       <c r="B94" s="30"/>
       <c r="C94" s="14">
-        <v>1170093</v>
+        <v>1170210</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>431</v>
@@ -4506,90 +4515,92 @@
       <c r="F94" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G94" s="16"/>
+      <c r="G94" s="31" t="s">
+        <v>434</v>
+      </c>
       <c r="H94" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="30"/>
       <c r="C95" s="14">
-        <v>1170210</v>
+        <v>1170212</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="G95" s="31" t="s">
         <v>438</v>
       </c>
+      <c r="G95" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="H95" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="30"/>
       <c r="C96" s="14">
-        <v>1170212</v>
+        <v>1170094</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F96" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="F96" s="51" t="s">
+        <v>443</v>
+      </c>
       <c r="G96" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="30"/>
       <c r="C97" s="14">
-        <v>1170094</v>
+        <v>1170216</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F97" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="G97" s="16" t="s">
         <v>448</v>
       </c>
+      <c r="G97" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="H97" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="30"/>
       <c r="C98" s="14">
-        <v>1170216</v>
+        <v>1170017</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F98" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>452</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -4603,16 +4614,16 @@
       <c r="A99" s="38"/>
       <c r="B99" s="30"/>
       <c r="C99" s="14">
-        <v>1170017</v>
+        <v>1170056</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>455</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G99" s="31" t="s">
         <v>457</v>
@@ -4625,35 +4636,33 @@
       <c r="A100" s="38"/>
       <c r="B100" s="30"/>
       <c r="C100" s="14">
-        <v>1170056</v>
+        <v>1170247</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G100" s="31" t="s">
+      <c r="G100" s="16"/>
+      <c r="H100" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="30"/>
       <c r="C101" s="14">
-        <v>1170247</v>
+        <v>1170058</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>464</v>
@@ -4667,7 +4676,7 @@
       <c r="A102" s="38"/>
       <c r="B102" s="30"/>
       <c r="C102" s="14">
-        <v>1170058</v>
+        <v>1170059</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>466</v>
@@ -4687,7 +4696,7 @@
       <c r="A103" s="38"/>
       <c r="B103" s="30"/>
       <c r="C103" s="14">
-        <v>1170059</v>
+        <v>1170074</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>470</v>
@@ -4698,118 +4707,118 @@
       <c r="F103" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="G103" s="16"/>
-      <c r="H103" s="10" t="s">
+      <c r="G103" s="31" t="s">
         <v>473</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="30"/>
       <c r="C104" s="14">
-        <v>1170074</v>
+        <v>1170110</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G104" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="G104" s="16" t="s">
         <v>478</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="30"/>
       <c r="C105" s="14">
-        <v>1170110</v>
+        <v>1170222</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="G105" s="16" t="s">
         <v>482</v>
       </c>
+      <c r="G105" s="31" t="s">
+        <v>483</v>
+      </c>
       <c r="H105" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="30"/>
       <c r="C106" s="14">
-        <v>1170222</v>
+        <v>1170220</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F106" s="8" t="s">
         <v>486</v>
       </c>
+      <c r="F106" s="51" t="s">
+        <v>487</v>
+      </c>
       <c r="G106" s="31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="30"/>
-      <c r="C107" s="14">
-        <v>1170220</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="C107" s="59">
+        <v>1170224</v>
+      </c>
+      <c r="D107" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="F107" s="51" t="s">
+      <c r="E107" s="61" t="s">
         <v>491</v>
       </c>
+      <c r="F107" s="62" t="s">
+        <v>492</v>
+      </c>
       <c r="G107" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="H107" s="10" t="s">
         <v>493</v>
+      </c>
+      <c r="H107" s="63" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="30"/>
-      <c r="C108" s="59">
-        <v>1170224</v>
-      </c>
-      <c r="D108" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="E108" s="61" t="s">
+      <c r="C108" s="14">
+        <v>1170075</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F108" s="62" t="s">
+      <c r="E108" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="G108" s="31" t="s">
+      <c r="F108" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="H108" s="63" t="s">
+      <c r="G108" s="16"/>
+      <c r="H108" s="10" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4817,7 +4826,7 @@
       <c r="A109" s="38"/>
       <c r="B109" s="30"/>
       <c r="C109" s="14">
-        <v>1170075</v>
+        <v>1170076</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>499</v>
@@ -4825,7 +4834,7 @@
       <c r="E109" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="51" t="s">
         <v>501</v>
       </c>
       <c r="G109" s="16"/>
@@ -4837,7 +4846,7 @@
       <c r="A110" s="38"/>
       <c r="B110" s="30"/>
       <c r="C110" s="14">
-        <v>1170076</v>
+        <v>1170273</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>503</v>
@@ -4845,7 +4854,7 @@
       <c r="E110" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F110" s="51" t="s">
+      <c r="F110" s="8" t="s">
         <v>505</v>
       </c>
       <c r="G110" s="16"/>
@@ -4857,7 +4866,7 @@
       <c r="A111" s="38"/>
       <c r="B111" s="30"/>
       <c r="C111" s="14">
-        <v>1170273</v>
+        <v>1170073</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>507</v>
@@ -4877,7 +4886,7 @@
       <c r="A112" s="38"/>
       <c r="B112" s="30"/>
       <c r="C112" s="14">
-        <v>1170073</v>
+        <v>1170102</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>511</v>
@@ -4897,7 +4906,7 @@
       <c r="A113" s="38"/>
       <c r="B113" s="30"/>
       <c r="C113" s="14">
-        <v>1170102</v>
+        <v>1170256</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>515</v>
@@ -4908,88 +4917,90 @@
       <c r="F113" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="G113" s="16"/>
+      <c r="G113" s="16" t="s">
+        <v>518</v>
+      </c>
       <c r="H113" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="30"/>
       <c r="C114" s="14">
-        <v>1170256</v>
+        <v>1170105</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="30"/>
       <c r="C115" s="14">
-        <v>1170105</v>
+        <v>1170083</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F115" s="8" t="s">
         <v>526</v>
       </c>
+      <c r="F115" s="51" t="s">
+        <v>527</v>
+      </c>
       <c r="G115" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="30"/>
       <c r="C116" s="14">
-        <v>1170083</v>
+        <v>1170064</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="F116" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="F116" s="8" t="s">
         <v>532</v>
       </c>
+      <c r="G116" s="31" t="s">
+        <v>533</v>
+      </c>
       <c r="H116" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="30"/>
       <c r="C117" s="14">
-        <v>1170064</v>
+        <v>1170236</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>535</v>
+        <v>392</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>536</v>
@@ -5002,130 +5013,2727 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="30"/>
       <c r="C118" s="14">
-        <v>1170236</v>
+        <v>1170230</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>539</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>396</v>
+        <v>540</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="G118" s="31" t="s">
         <v>541</v>
       </c>
+      <c r="G118" s="16" t="s">
+        <v>542</v>
+      </c>
       <c r="H118" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="14">
-        <v>1170230</v>
-      </c>
-      <c r="D119" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>547</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B5 A8:B10 A13:B14 A16:B21 A23:B23 A25:B25 A27:B1048573">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:B5 A8:B9 A12:B13 A15:B20 A22:B22 A24:B24 A26:B1048572">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="mailto:lucy@gmesemi.com" xr:uid="{CA289BF3-A7AD-4AA3-A7CF-4EC85C277CAB}"/>
     <hyperlink ref="G9" r:id="rId2" display="mailto:heather@gmesemi.com" xr:uid="{AA4336E1-EB33-4A71-9DFE-FC34C046F7BB}"/>
-    <hyperlink ref="F11" r:id="rId3" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{40DC5547-81B2-487E-A20A-3EC9356A4BED}"/>
-    <hyperlink ref="G11" r:id="rId4" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{D3F11C93-19A3-42B6-A1F7-7695597B546A}"/>
-    <hyperlink ref="F12" r:id="rId5" display="mailto:cyin@ceccoils.com" xr:uid="{EB5B1715-B18D-4727-BAAD-D2554F53682B}"/>
-    <hyperlink ref="F13" r:id="rId6" display="mailto:agnes_li@commutek.com" xr:uid="{122CB05B-826B-49A2-A62A-C2A345570CAB}"/>
-    <hyperlink ref="G13" r:id="rId7" display="mailto:agnes_li@commutek.com;sidney%20%3csidney_chan@commutek.com" xr:uid="{34334379-0775-484D-937C-922923ED2B15}"/>
-    <hyperlink ref="F18" r:id="rId8" display="mailto:shengguan@shoei.com.cn" xr:uid="{31A6256C-17C2-4F7E-A627-29E0DC251913}"/>
-    <hyperlink ref="F19" r:id="rId9" display="mailto:sales07@dg-yamamoto.cn" xr:uid="{81BB91FF-64A2-46FB-82D8-DD6FB1EDB5D4}"/>
-    <hyperlink ref="G21" r:id="rId10" display="mailto:jason-tsui@ei-kei.com" xr:uid="{BC10A420-03F5-4247-93AA-4A257D8A9EB6}"/>
-    <hyperlink ref="F22" r:id="rId11" display="mailto:zhuoruming@elematec.com" xr:uid="{9514C488-BA90-4D00-B64B-EE8CA9BBF490}"/>
-    <hyperlink ref="G22" r:id="rId12" display="mailto:gavin@elematec.com;chenxuya@elematec.com;lijialing@elematec.com" xr:uid="{02A157B9-75D8-466D-8224-F3512B2B4D9F}"/>
-    <hyperlink ref="F28" r:id="rId13" display="mailto:emma.wang@ellingtonpcb.com" xr:uid="{2F5B9DCB-9226-4F4C-934D-E76121677F3F}"/>
-    <hyperlink ref="G31" r:id="rId14" display="mailto:pmc_03@hayakawasz.com" xr:uid="{FE799623-5916-46FB-970D-D5E0FBAAFB92}"/>
-    <hyperlink ref="G34" r:id="rId15" display="mailto:yiu@hoipo.com" xr:uid="{E02F1D8F-82AC-4548-A99D-8C12AE9E7CC5}"/>
-    <hyperlink ref="G37" r:id="rId16" display="mailto:EVE@utcircuits.com%20%3ceve@utcircuits.com%3e;%20UTPMC%20李荣%20%3cpmc@utcircuits.com" xr:uid="{CBB0E7DB-7F80-442C-8680-851952456F92}"/>
-    <hyperlink ref="F41" r:id="rId17" display="mailto:qa02@jitstech.com" xr:uid="{63C7D623-963E-4B7B-9647-3A90BE408A42}"/>
-    <hyperlink ref="G41" r:id="rId18" display="mailto:nancy.jiang@jitstech.com" xr:uid="{0C16E921-2F31-4B02-A1E4-0883B5D2E80D}"/>
-    <hyperlink ref="F42" r:id="rId19" display="mailto:skhe@dg.passivecomponent.com" xr:uid="{BA4B069C-6ECF-4290-9A26-87DAC503E419}"/>
-    <hyperlink ref="G42" r:id="rId20" display="mailto:caroldeng@dg.passivecomponent.com" xr:uid="{D355C9E5-130E-46B0-B210-988D51EF018B}"/>
-    <hyperlink ref="F44" r:id="rId21" display="../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/TJVRN0XY/info@amami.com.cn;AMAMI: WuZhiLiang %3cqc@amami.com.cn" xr:uid="{A355234F-9DA5-4F31-945C-860954C7A0C1}"/>
-    <hyperlink ref="G44" r:id="rId22" display="mailto:gyomu@amami.com.cn;shengguan@amami.com.cn;order@amami.com.cn;info@amami.com.cn" xr:uid="{D44864F4-BB2F-49CD-9C4F-0B18E06A4240}"/>
-    <hyperlink ref="F45" r:id="rId23" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{BBDE77EE-DCF6-48FC-BC97-B67662EC62F6}"/>
-    <hyperlink ref="G45" r:id="rId24" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{57CD70EE-16C7-4A3C-8851-09DEE097CE97}"/>
-    <hyperlink ref="G48" r:id="rId25" display="mailto:customerservice-cn@kyosha.com.hk" xr:uid="{9B002DA3-571A-462C-84DF-A05E36DF3481}"/>
-    <hyperlink ref="F49" r:id="rId26" display="mailto:jufang.li@dupont.com" xr:uid="{AFCE7497-E15E-484E-A1A2-208BE54918E1}"/>
-    <hyperlink ref="G50" r:id="rId27" display="mailto:pua.tiamtien@siix-global.com" xr:uid="{D4A7DCF9-3EF6-4816-8896-AD0EA06C7941}"/>
-    <hyperlink ref="G51" r:id="rId28" display="mailto:victor@lte.com.tw" xr:uid="{4E087F89-DB35-429D-8CE8-9A7B64F14D0E}"/>
-    <hyperlink ref="G56" r:id="rId29" display="mailto:tianyuan@meiko-elec.com" xr:uid="{8B854C85-531C-42BE-89D4-8096706DDF06}"/>
-    <hyperlink ref="G57" r:id="rId30" display="mailto:liu.ying2@mektec.nokgrp.com" xr:uid="{C81EF7EB-4045-4924-A635-CCFB0FD3A83D}"/>
-    <hyperlink ref="G60" r:id="rId31" display="mailto:lydia.lin@murata.com" xr:uid="{1A95D48C-005B-4E12-9503-74DE685F53F0}"/>
-    <hyperlink ref="G61" r:id="rId32" display="mailto:yasu_sano@musashi-denko.co.jp;bonniemusashi@gmail.com" xr:uid="{E7A11D96-3434-4A7E-BED2-D2368EE595FB}"/>
-    <hyperlink ref="G64" r:id="rId33" display="mailto:yan.chan@nichicon.com," xr:uid="{C52ECCB0-C44C-45A1-A328-76CEAAE5B76F}"/>
-    <hyperlink ref="G65" r:id="rId34" display="mailto:Fanto_Li@nipponexpress-necl.com.hk" xr:uid="{28B6BEAD-6774-44A3-8F5E-D33431750E68}"/>
-    <hyperlink ref="G66" r:id="rId35" display="mailto:ko-satou@os-electronics.co.jp" xr:uid="{4A68C22F-B039-4454-9625-1C7301C02A6B}"/>
-    <hyperlink ref="F70" r:id="rId36" display="mailto:wen_na@szplasess.com" xr:uid="{BFEC9CE8-7B08-4E89-85B8-99D456949330}"/>
-    <hyperlink ref="G71" r:id="rId37" display="mailto:fanny@portease.com" xr:uid="{AF2993AF-B99C-4781-BE3E-E90633B29057}"/>
-    <hyperlink ref="G72" r:id="rId38" display="mailto:billy_yang@rayben.com" xr:uid="{4445DC5C-0AEB-4AD7-B2C8-C2372F5F28E2}"/>
-    <hyperlink ref="F73" r:id="rId39" display="mailto:qs_jx@redboard.com.cn" xr:uid="{69A2B8C1-5EA3-400D-AD6F-24BF647E66D5}"/>
-    <hyperlink ref="G73" r:id="rId40" display="mailto:joe@redboard.com.cn" xr:uid="{9957816B-0B5D-401F-93F9-F13704784B27}"/>
-    <hyperlink ref="G74" r:id="rId41" display="mailto:man001@riko.com.tw;%20'陳詩惠'%20%3cTPITD002@riko.com.tw" xr:uid="{06C5B763-E643-406D-8281-7E9F700B6F83}"/>
-    <hyperlink ref="G75" r:id="rId42" display="mailto:celinazhang@rohmsz.com.cn" xr:uid="{898B09BF-4D1C-4EBA-BE26-3D8BC8DD1681}"/>
-    <hyperlink ref="F76" r:id="rId43" display="mailto:ynihei@rubycon.co.jp" xr:uid="{49E037DC-316C-481C-BCEE-7D4DD054E342}"/>
-    <hyperlink ref="G76" r:id="rId44" display="mailto:jessica@rubycon.co.jp;ranaluo@rubycon.cn.jp;akung@rubycon.co.jp;TAKAYUKI%20HARA%20%3cthara@rubycon.co.jp%3e;NAGI%20WONG%20%3ctsubame@rubycon.co.jp" xr:uid="{038D383A-BB8F-43FA-87B3-C0BB66E35F95}"/>
-    <hyperlink ref="G79" r:id="rId45" display="mailto:kiki@santazh.com" xr:uid="{7F7806D8-C5C0-4A0F-8D50-390D2C4C6570}"/>
-    <hyperlink ref="F80" r:id="rId46" display="mailto:noah@sei-den.co.jpsy-jin%20%3csy-jin@vip.163.com" xr:uid="{CC8D1EAD-1C05-490A-803F-F2A1E3734A01}"/>
-    <hyperlink ref="G80" r:id="rId47" display="mailto:Ben@seibumax.com;May@seibumax.com;SeibuMax%20-%20Mr%20Tsukioka%20%3ctakashi-tukioka@sei-den.co.jp%3e;西武MAX%20徐先生%20%3cben@seibumax.com" xr:uid="{93E06A10-FF34-4FCC-9995-ED1A5E2225AE}"/>
-    <hyperlink ref="F81" r:id="rId48" display="mailto:zhuzhijun@skensetsu.com" xr:uid="{70CF842F-D67A-4BF6-9209-F0CA31DECF4A}"/>
-    <hyperlink ref="F82" r:id="rId49" display="mailto:luolin@tokyoparts.com.cn" xr:uid="{BD55364B-BA92-4279-A7E9-D92372214058}"/>
-    <hyperlink ref="G82" r:id="rId50" display="mailto:lijuan@tokyoparts.com.cn;chuina@tokyoparts.com.cn;营业-郑湘雯%20%3czhengxiangwen@tokyoparts.com.cn" xr:uid="{C5D8C0BE-2270-4B7C-AC2F-D9C7E1BE8B4F}"/>
-    <hyperlink ref="F84" r:id="rId51" display="mailto:yanggen225810@163.com" xr:uid="{44F891DB-C968-4439-A426-EBFB14383651}"/>
-    <hyperlink ref="G84" r:id="rId52" display="mailto:meihua.jiang@jingzhicheng.com.cn;高主管%20%3cpinguan-03@jingzhicheng.com.cn%3e;%20王厂长wangpin%20%3cwangpin@jingzhicheng.com.cn%3e;%20精之成杨根'R%20%3cyanggen225810@163.com" xr:uid="{8D031AC4-4ED8-4B7B-B1EE-3E6BB29D7308}"/>
-    <hyperlink ref="F85" r:id="rId53" display="mailto:yangwh@shimoda.cn" xr:uid="{5E2EF5F0-A640-46D2-A95F-C8745FE9F105}"/>
-    <hyperlink ref="G85" r:id="rId54" display="mailto:jinyinghua@shimoda.cn;jinyinghua@shimoda.cn" xr:uid="{1E9E8F43-C2E2-465B-87A4-DA125767471C}"/>
-    <hyperlink ref="F87" r:id="rId55" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{BE7BB57E-AE06-46A4-BC20-29F464AA2DCF}"/>
-    <hyperlink ref="G87" r:id="rId56" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{0149A375-BB59-4E8E-A334-87828FBA2F09}"/>
-    <hyperlink ref="G88" r:id="rId57" display="mailto:lanjiahong@fujipcb.cn" xr:uid="{05438DB2-2965-4749-8319-D3B76173F0C6}"/>
-    <hyperlink ref="G91" r:id="rId58" display="mailto:jiaolan.luo@siix-global.com" xr:uid="{D479810A-EC91-4FDF-93C5-2D39F8653069}"/>
-    <hyperlink ref="G93" r:id="rId59" display="mailto:jennifer.huang@somacisgraphic.com" xr:uid="{EB9FF491-801C-4284-9F48-836A6B667A0C}"/>
-    <hyperlink ref="G95" r:id="rId60" display="mailto:Rouhul.Shah@sugo.com.hk;eva.lee@sugo.com.hk;miko.chow@sugo.com.hk;Sugo_Camily.Pun%20%3ccamily@sugo.com.hk" xr:uid="{B749E277-9EDE-4998-BA03-9670BD9D06EE}"/>
-    <hyperlink ref="F97" r:id="rId61" display="mailto:lisa@taiohm.com.tw" xr:uid="{CCD1F6CD-2297-4468-B764-C114470744B9}"/>
-    <hyperlink ref="F98" r:id="rId62" display="mailto:pekkie@tkk.corp.com.hk" xr:uid="{C0269CA2-0074-430B-8B10-FA50505439FA}"/>
-    <hyperlink ref="G98" r:id="rId63" display="mailto:emily_ho@tkk.corp.com.hk;pekkie@tkk.corp.com.hk" xr:uid="{05991FA4-7D82-4BA4-BD01-C859A3CD8C00}"/>
-    <hyperlink ref="G99" r:id="rId64" display="mailto:Lucy.Wang@tdk.com" xr:uid="{50C39558-6B31-4E84-B79D-6CCC5943C1CD}"/>
-    <hyperlink ref="G100" r:id="rId65" display="mailto:Vicky.Mo@tdk.com" xr:uid="{79096255-16B4-4FFD-BACE-66940AF2CA6F}"/>
-    <hyperlink ref="G104" r:id="rId66" display="mailto:yuanyifei@tomitadenki.com.cn" xr:uid="{D62109A3-4A1A-4E50-87A4-69C3B181D0B5}"/>
-    <hyperlink ref="G106" r:id="rId67" display="mailto:thl-so@torexsemi.com.hk" xr:uid="{9FBF9D48-FB23-4641-B979-288F273139EB}"/>
-    <hyperlink ref="F107" r:id="rId68" display="mailto:Joe.yung@toyokizai.com.hk" xr:uid="{74BFD51A-289B-4CE0-AB27-137230774BD3}"/>
-    <hyperlink ref="G107" r:id="rId69" display="mailto:kawarada@toyokizai.com.hk;joyce@toyokizai.com.hk" xr:uid="{46DBAA16-5E57-4EEE-B598-19B3344A3AA7}"/>
-    <hyperlink ref="G108" r:id="rId70" display="mailto:water@troishk.com.hk" xr:uid="{A578C30E-3147-48AD-B957-248EF84AED11}"/>
-    <hyperlink ref="F110" r:id="rId71" display="mailto:cao-jing@umccn.com" xr:uid="{86D63B17-81D3-4CE2-8DBB-2A2B228BAEAC}"/>
-    <hyperlink ref="F116" r:id="rId72" display="mailto:caiwu@shinshinyue.com" xr:uid="{16BAC78B-1031-4B9A-B118-2BA46E3FA3A5}"/>
-    <hyperlink ref="G117" r:id="rId73" display="mailto:ylin06@y-lin.com" xr:uid="{A20E194D-FA28-4B78-B33C-7F5768B2BF79}"/>
-    <hyperlink ref="G118" r:id="rId74" display="mailto:kenlam@yantat.com;%20daveho@sz-yantat.com" xr:uid="{1EA4892F-6827-4B69-8A2E-49EB983D6717}"/>
+    <hyperlink ref="F10" r:id="rId3" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{40DC5547-81B2-487E-A20A-3EC9356A4BED}"/>
+    <hyperlink ref="G10" r:id="rId4" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{D3F11C93-19A3-42B6-A1F7-7695597B546A}"/>
+    <hyperlink ref="F11" r:id="rId5" display="mailto:cyin@ceccoils.com" xr:uid="{EB5B1715-B18D-4727-BAAD-D2554F53682B}"/>
+    <hyperlink ref="F12" r:id="rId6" display="mailto:agnes_li@commutek.com" xr:uid="{122CB05B-826B-49A2-A62A-C2A345570CAB}"/>
+    <hyperlink ref="G12" r:id="rId7" display="mailto:agnes_li@commutek.com;sidney%20%3csidney_chan@commutek.com" xr:uid="{34334379-0775-484D-937C-922923ED2B15}"/>
+    <hyperlink ref="F17" r:id="rId8" display="mailto:shengguan@shoei.com.cn" xr:uid="{31A6256C-17C2-4F7E-A627-29E0DC251913}"/>
+    <hyperlink ref="F18" r:id="rId9" display="mailto:sales07@dg-yamamoto.cn" xr:uid="{81BB91FF-64A2-46FB-82D8-DD6FB1EDB5D4}"/>
+    <hyperlink ref="G20" r:id="rId10" display="mailto:jason-tsui@ei-kei.com" xr:uid="{BC10A420-03F5-4247-93AA-4A257D8A9EB6}"/>
+    <hyperlink ref="F21" r:id="rId11" display="mailto:zhuoruming@elematec.com" xr:uid="{9514C488-BA90-4D00-B64B-EE8CA9BBF490}"/>
+    <hyperlink ref="G21" r:id="rId12" display="mailto:gavin@elematec.com;chenxuya@elematec.com;lijialing@elematec.com" xr:uid="{02A157B9-75D8-466D-8224-F3512B2B4D9F}"/>
+    <hyperlink ref="F27" r:id="rId13" display="mailto:emma.wang@ellingtonpcb.com" xr:uid="{2F5B9DCB-9226-4F4C-934D-E76121677F3F}"/>
+    <hyperlink ref="G30" r:id="rId14" display="mailto:pmc_03@hayakawasz.com" xr:uid="{FE799623-5916-46FB-970D-D5E0FBAAFB92}"/>
+    <hyperlink ref="G33" r:id="rId15" display="mailto:yiu@hoipo.com" xr:uid="{E02F1D8F-82AC-4548-A99D-8C12AE9E7CC5}"/>
+    <hyperlink ref="G36" r:id="rId16" display="mailto:EVE@utcircuits.com%20%3ceve@utcircuits.com%3e;%20UTPMC%20李荣%20%3cpmc@utcircuits.com" xr:uid="{CBB0E7DB-7F80-442C-8680-851952456F92}"/>
+    <hyperlink ref="F40" r:id="rId17" display="mailto:qa02@jitstech.com" xr:uid="{63C7D623-963E-4B7B-9647-3A90BE408A42}"/>
+    <hyperlink ref="G40" r:id="rId18" display="mailto:nancy.jiang@jitstech.com" xr:uid="{0C16E921-2F31-4B02-A1E4-0883B5D2E80D}"/>
+    <hyperlink ref="F41" r:id="rId19" display="mailto:skhe@dg.passivecomponent.com" xr:uid="{BA4B069C-6ECF-4290-9A26-87DAC503E419}"/>
+    <hyperlink ref="G41" r:id="rId20" display="mailto:caroldeng@dg.passivecomponent.com" xr:uid="{D355C9E5-130E-46B0-B210-988D51EF018B}"/>
+    <hyperlink ref="F43" r:id="rId21" display="../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/TJVRN0XY/info@amami.com.cn;AMAMI: WuZhiLiang %3cqc@amami.com.cn" xr:uid="{A355234F-9DA5-4F31-945C-860954C7A0C1}"/>
+    <hyperlink ref="G43" r:id="rId22" display="mailto:gyomu@amami.com.cn;shengguan@amami.com.cn;order@amami.com.cn;info@amami.com.cn" xr:uid="{D44864F4-BB2F-49CD-9C4F-0B18E06A4240}"/>
+    <hyperlink ref="F44" r:id="rId23" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{BBDE77EE-DCF6-48FC-BC97-B67662EC62F6}"/>
+    <hyperlink ref="G44" r:id="rId24" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{57CD70EE-16C7-4A3C-8851-09DEE097CE97}"/>
+    <hyperlink ref="G47" r:id="rId25" display="mailto:customerservice-cn@kyosha.com.hk" xr:uid="{9B002DA3-571A-462C-84DF-A05E36DF3481}"/>
+    <hyperlink ref="F48" r:id="rId26" display="mailto:jufang.li@dupont.com" xr:uid="{AFCE7497-E15E-484E-A1A2-208BE54918E1}"/>
+    <hyperlink ref="G49" r:id="rId27" display="mailto:pua.tiamtien@siix-global.com" xr:uid="{D4A7DCF9-3EF6-4816-8896-AD0EA06C7941}"/>
+    <hyperlink ref="G50" r:id="rId28" display="mailto:victor@lte.com.tw" xr:uid="{4E087F89-DB35-429D-8CE8-9A7B64F14D0E}"/>
+    <hyperlink ref="G55" r:id="rId29" display="mailto:tianyuan@meiko-elec.com" xr:uid="{8B854C85-531C-42BE-89D4-8096706DDF06}"/>
+    <hyperlink ref="G56" r:id="rId30" display="mailto:liu.ying2@mektec.nokgrp.com" xr:uid="{C81EF7EB-4045-4924-A635-CCFB0FD3A83D}"/>
+    <hyperlink ref="G59" r:id="rId31" display="mailto:lydia.lin@murata.com" xr:uid="{1A95D48C-005B-4E12-9503-74DE685F53F0}"/>
+    <hyperlink ref="G60" r:id="rId32" display="mailto:yasu_sano@musashi-denko.co.jp;bonniemusashi@gmail.com" xr:uid="{E7A11D96-3434-4A7E-BED2-D2368EE595FB}"/>
+    <hyperlink ref="G63" r:id="rId33" display="mailto:yan.chan@nichicon.com," xr:uid="{C52ECCB0-C44C-45A1-A328-76CEAAE5B76F}"/>
+    <hyperlink ref="G64" r:id="rId34" display="mailto:Fanto_Li@nipponexpress-necl.com.hk" xr:uid="{28B6BEAD-6774-44A3-8F5E-D33431750E68}"/>
+    <hyperlink ref="G65" r:id="rId35" display="mailto:ko-satou@os-electronics.co.jp" xr:uid="{4A68C22F-B039-4454-9625-1C7301C02A6B}"/>
+    <hyperlink ref="F69" r:id="rId36" display="mailto:wen_na@szplasess.com" xr:uid="{BFEC9CE8-7B08-4E89-85B8-99D456949330}"/>
+    <hyperlink ref="G70" r:id="rId37" display="mailto:fanny@portease.com" xr:uid="{AF2993AF-B99C-4781-BE3E-E90633B29057}"/>
+    <hyperlink ref="G71" r:id="rId38" display="mailto:billy_yang@rayben.com" xr:uid="{4445DC5C-0AEB-4AD7-B2C8-C2372F5F28E2}"/>
+    <hyperlink ref="F72" r:id="rId39" display="mailto:qs_jx@redboard.com.cn" xr:uid="{69A2B8C1-5EA3-400D-AD6F-24BF647E66D5}"/>
+    <hyperlink ref="G72" r:id="rId40" display="mailto:joe@redboard.com.cn" xr:uid="{9957816B-0B5D-401F-93F9-F13704784B27}"/>
+    <hyperlink ref="G73" r:id="rId41" display="mailto:man001@riko.com.tw;%20'陳詩惠'%20%3cTPITD002@riko.com.tw" xr:uid="{06C5B763-E643-406D-8281-7E9F700B6F83}"/>
+    <hyperlink ref="G74" r:id="rId42" display="mailto:celinazhang@rohmsz.com.cn" xr:uid="{898B09BF-4D1C-4EBA-BE26-3D8BC8DD1681}"/>
+    <hyperlink ref="F75" r:id="rId43" display="mailto:ynihei@rubycon.co.jp" xr:uid="{49E037DC-316C-481C-BCEE-7D4DD054E342}"/>
+    <hyperlink ref="G75" r:id="rId44" display="mailto:jessica@rubycon.co.jp;ranaluo@rubycon.cn.jp;akung@rubycon.co.jp;TAKAYUKI%20HARA%20%3cthara@rubycon.co.jp%3e;NAGI%20WONG%20%3ctsubame@rubycon.co.jp" xr:uid="{038D383A-BB8F-43FA-87B3-C0BB66E35F95}"/>
+    <hyperlink ref="G78" r:id="rId45" display="mailto:kiki@santazh.com" xr:uid="{7F7806D8-C5C0-4A0F-8D50-390D2C4C6570}"/>
+    <hyperlink ref="F79" r:id="rId46" display="mailto:noah@sei-den.co.jpsy-jin%20%3csy-jin@vip.163.com" xr:uid="{CC8D1EAD-1C05-490A-803F-F2A1E3734A01}"/>
+    <hyperlink ref="G79" r:id="rId47" display="mailto:Ben@seibumax.com;May@seibumax.com;SeibuMax%20-%20Mr%20Tsukioka%20%3ctakashi-tukioka@sei-den.co.jp%3e;西武MAX%20徐先生%20%3cben@seibumax.com" xr:uid="{93E06A10-FF34-4FCC-9995-ED1A5E2225AE}"/>
+    <hyperlink ref="F80" r:id="rId48" display="mailto:zhuzhijun@skensetsu.com" xr:uid="{70CF842F-D67A-4BF6-9209-F0CA31DECF4A}"/>
+    <hyperlink ref="F81" r:id="rId49" display="mailto:luolin@tokyoparts.com.cn" xr:uid="{BD55364B-BA92-4279-A7E9-D92372214058}"/>
+    <hyperlink ref="G81" r:id="rId50" display="mailto:lijuan@tokyoparts.com.cn;chuina@tokyoparts.com.cn;营业-郑湘雯%20%3czhengxiangwen@tokyoparts.com.cn" xr:uid="{C5D8C0BE-2270-4B7C-AC2F-D9C7E1BE8B4F}"/>
+    <hyperlink ref="F83" r:id="rId51" display="mailto:yanggen225810@163.com" xr:uid="{44F891DB-C968-4439-A426-EBFB14383651}"/>
+    <hyperlink ref="G83" r:id="rId52" display="mailto:meihua.jiang@jingzhicheng.com.cn;高主管%20%3cpinguan-03@jingzhicheng.com.cn%3e;%20王厂长wangpin%20%3cwangpin@jingzhicheng.com.cn%3e;%20精之成杨根'R%20%3cyanggen225810@163.com" xr:uid="{8D031AC4-4ED8-4B7B-B1EE-3E6BB29D7308}"/>
+    <hyperlink ref="F84" r:id="rId53" display="mailto:yangwh@shimoda.cn" xr:uid="{5E2EF5F0-A640-46D2-A95F-C8745FE9F105}"/>
+    <hyperlink ref="G84" r:id="rId54" display="mailto:jinyinghua@shimoda.cn;jinyinghua@shimoda.cn" xr:uid="{1E9E8F43-C2E2-465B-87A4-DA125767471C}"/>
+    <hyperlink ref="F86" r:id="rId55" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{BE7BB57E-AE06-46A4-BC20-29F464AA2DCF}"/>
+    <hyperlink ref="G86" r:id="rId56" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{0149A375-BB59-4E8E-A334-87828FBA2F09}"/>
+    <hyperlink ref="G87" r:id="rId57" display="mailto:lanjiahong@fujipcb.cn" xr:uid="{05438DB2-2965-4749-8319-D3B76173F0C6}"/>
+    <hyperlink ref="G90" r:id="rId58" display="mailto:jiaolan.luo@siix-global.com" xr:uid="{D479810A-EC91-4FDF-93C5-2D39F8653069}"/>
+    <hyperlink ref="G92" r:id="rId59" display="mailto:jennifer.huang@somacisgraphic.com" xr:uid="{EB9FF491-801C-4284-9F48-836A6B667A0C}"/>
+    <hyperlink ref="G94" r:id="rId60" display="mailto:Rouhul.Shah@sugo.com.hk;eva.lee@sugo.com.hk;miko.chow@sugo.com.hk;Sugo_Camily.Pun%20%3ccamily@sugo.com.hk" xr:uid="{B749E277-9EDE-4998-BA03-9670BD9D06EE}"/>
+    <hyperlink ref="F96" r:id="rId61" display="mailto:lisa@taiohm.com.tw" xr:uid="{CCD1F6CD-2297-4468-B764-C114470744B9}"/>
+    <hyperlink ref="F97" r:id="rId62" display="mailto:pekkie@tkk.corp.com.hk" xr:uid="{C0269CA2-0074-430B-8B10-FA50505439FA}"/>
+    <hyperlink ref="G97" r:id="rId63" display="mailto:emily_ho@tkk.corp.com.hk;pekkie@tkk.corp.com.hk" xr:uid="{05991FA4-7D82-4BA4-BD01-C859A3CD8C00}"/>
+    <hyperlink ref="G98" r:id="rId64" display="mailto:Lucy.Wang@tdk.com" xr:uid="{50C39558-6B31-4E84-B79D-6CCC5943C1CD}"/>
+    <hyperlink ref="G99" r:id="rId65" display="mailto:Vicky.Mo@tdk.com" xr:uid="{79096255-16B4-4FFD-BACE-66940AF2CA6F}"/>
+    <hyperlink ref="G103" r:id="rId66" display="mailto:yuanyifei@tomitadenki.com.cn" xr:uid="{D62109A3-4A1A-4E50-87A4-69C3B181D0B5}"/>
+    <hyperlink ref="G105" r:id="rId67" display="mailto:thl-so@torexsemi.com.hk" xr:uid="{9FBF9D48-FB23-4641-B979-288F273139EB}"/>
+    <hyperlink ref="F106" r:id="rId68" display="mailto:Joe.yung@toyokizai.com.hk" xr:uid="{74BFD51A-289B-4CE0-AB27-137230774BD3}"/>
+    <hyperlink ref="G106" r:id="rId69" display="mailto:kawarada@toyokizai.com.hk;joyce@toyokizai.com.hk" xr:uid="{46DBAA16-5E57-4EEE-B598-19B3344A3AA7}"/>
+    <hyperlink ref="G107" r:id="rId70" display="mailto:water@troishk.com.hk" xr:uid="{A578C30E-3147-48AD-B957-248EF84AED11}"/>
+    <hyperlink ref="F109" r:id="rId71" display="mailto:cao-jing@umccn.com" xr:uid="{86D63B17-81D3-4CE2-8DBB-2A2B228BAEAC}"/>
+    <hyperlink ref="F115" r:id="rId72" display="mailto:caiwu@shinshinyue.com" xr:uid="{16BAC78B-1031-4B9A-B118-2BA46E3FA3A5}"/>
+    <hyperlink ref="G116" r:id="rId73" display="mailto:ylin06@y-lin.com" xr:uid="{A20E194D-FA28-4B78-B33C-7F5768B2BF79}"/>
+    <hyperlink ref="G117" r:id="rId74" display="mailto:kenlam@yantat.com;%20daveho@sz-yantat.com" xr:uid="{1EA4892F-6827-4B69-8A2E-49EB983D6717}"/>
     <hyperlink ref="G5" r:id="rId75" display="mailto:sherry.xiao@avnet.com" xr:uid="{F03B23AE-1D3B-4BDB-B7FD-006C7E8400FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FF64F9-A8C7-4C75-B498-02806B8B7125}">
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="1">
+        <v>1170001</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="1">
+        <v>1170128</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="66">
+        <v>1170124</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="14">
+        <v>1170252</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="14">
+        <v>1170065</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="44">
+        <v>1170235</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="44">
+        <v>1170270</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="14">
+        <v>1170232</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14">
+        <v>1170008</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14">
+        <v>1170079</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="14">
+        <v>1170251</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="14">
+        <v>1170009</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14">
+        <v>1170159</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="14">
+        <v>1170011</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="14">
+        <v>1170257</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="14">
+        <v>1170268</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="14">
+        <v>1170048</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="14">
+        <v>1170014</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="14">
+        <v>1170066</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14">
+        <v>1170070</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="14">
+        <v>1170260</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14">
+        <v>1170144</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="14">
+        <v>1170067</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14">
+        <v>1170145</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="14">
+        <v>1170106</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="14">
+        <v>1170020</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="14">
+        <v>1170125</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="14">
+        <v>1170126</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26">
+        <v>1170022</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="14">
+        <v>1170024</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="14">
+        <v>1170151</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="14">
+        <v>1170023</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="14">
+        <v>1170242</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="14">
+        <v>1170215</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="14">
+        <v>1170225</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="14">
+        <v>1170133</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="14">
+        <v>1170160</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="14">
+        <v>1170262</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="14">
+        <v>1170081</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="14">
+        <v>1170161</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="14">
+        <v>1170078</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="14">
+        <v>1170167</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="14">
+        <v>1170057</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="14">
+        <v>1170068</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="14">
+        <v>1170267</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="14">
+        <v>1170030</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="14">
+        <v>1170031</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="14">
+        <v>1170266</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="14">
+        <v>1170170</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="14">
+        <v>1170088</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="14">
+        <v>1170122</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="14">
+        <v>1170089</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="14">
+        <v>1170034</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="14">
+        <v>1170035</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="14">
+        <v>1170036</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="14">
+        <v>1170179</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="14">
+        <v>1170180</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="14">
+        <v>1170038</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="14">
+        <v>1170181</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="14">
+        <v>1170189</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="14">
+        <v>1170184</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="14">
+        <v>1170185</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="14">
+        <v>1170187</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="14">
+        <v>1170040</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="14">
+        <v>1170190</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="14">
+        <v>1170196</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="14">
+        <v>1170174</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="14">
+        <v>1170043</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F69" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="14">
+        <v>1170120</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="14">
+        <v>1170077</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="14">
+        <v>1170046</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="14">
+        <v>1170201</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="14">
+        <v>1170047</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="14">
+        <v>1170202</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="14">
+        <v>1170203</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="14">
+        <v>1170072</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="14">
+        <v>1170049</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="14">
+        <v>1170206</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="14">
+        <v>1170166</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="14">
+        <v>1170095</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F81" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="14">
+        <v>1170050</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="14">
+        <v>1170229</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="14">
+        <v>1170208</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F84" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="14">
+        <v>1170051</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="14">
+        <v>1170052</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="14">
+        <v>1170053</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="14">
+        <v>2170016</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="14">
+        <v>2170011</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="14">
+        <v>2170003</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="14">
+        <v>1170258</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="H91" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="38"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="14">
+        <v>1170121</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="14">
+        <v>1170093</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="38"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="14">
+        <v>1170210</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="14">
+        <v>1170212</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="38"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="14">
+        <v>1170094</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F96" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="38"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="14">
+        <v>1170216</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F97" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="38"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="14">
+        <v>1170017</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="38"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="14">
+        <v>1170056</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="38"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="14">
+        <v>1170247</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A101" s="38"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="14">
+        <v>1170058</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="14">
+        <v>1170059</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="38"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="14">
+        <v>1170074</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="14">
+        <v>1170110</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="38"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="14">
+        <v>1170222</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="38"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="14">
+        <v>1170220</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="38"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="59">
+        <v>1170224</v>
+      </c>
+      <c r="D107" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="E107" s="61" t="s">
+        <v>491</v>
+      </c>
+      <c r="F107" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="H107" s="63" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="38"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="14">
+        <v>1170075</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="14">
+        <v>1170076</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F109" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="14">
+        <v>1170273</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="38"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="14">
+        <v>1170073</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="38"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="14">
+        <v>1170102</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="14">
+        <v>1170256</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="38"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="14">
+        <v>1170105</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="38"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="14">
+        <v>1170083</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F115" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="38"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="14">
+        <v>1170064</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="38"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="14">
+        <v>1170236</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="14">
+        <v>1170230</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B5 A8:B9 A12:B13 A15:B20 A22:B22 A24:B24 A26:B118">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" display="mailto:lucy@gmesemi.com" xr:uid="{B027B840-45E4-4A10-9B52-616C16B5E1B1}"/>
+    <hyperlink ref="G9" r:id="rId2" display="mailto:heather@gmesemi.com" xr:uid="{8C5AF508-EBB1-48ED-9B20-4DBF0AC0D47D}"/>
+    <hyperlink ref="F10" r:id="rId3" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{96E6AB3C-6A1D-454C-92E1-E8267FFB734D}"/>
+    <hyperlink ref="G10" r:id="rId4" display="mailto:yuxiu.liu@cmkc.com.hk" xr:uid="{0C773C88-E2ED-4891-851A-F19CA0E7B272}"/>
+    <hyperlink ref="F11" r:id="rId5" display="mailto:cyin@ceccoils.com" xr:uid="{FF03256F-C0C6-49AE-BE36-BB0F600C9750}"/>
+    <hyperlink ref="F12" r:id="rId6" display="mailto:agnes_li@commutek.com" xr:uid="{6633DB56-8C77-4CC6-8380-B41A7C8B36E9}"/>
+    <hyperlink ref="G12" r:id="rId7" display="mailto:agnes_li@commutek.com;sidney%20%3csidney_chan@commutek.com" xr:uid="{20367D05-C614-43BB-9DFD-48E1F99D0895}"/>
+    <hyperlink ref="F17" r:id="rId8" display="mailto:shengguan@shoei.com.cn" xr:uid="{CD788F85-9270-4938-9BD9-AE41D42FE24E}"/>
+    <hyperlink ref="F18" r:id="rId9" display="mailto:sales07@dg-yamamoto.cn" xr:uid="{740BB76D-FD45-4230-8D75-AD53F4FBC9F5}"/>
+    <hyperlink ref="G20" r:id="rId10" display="mailto:jason-tsui@ei-kei.com" xr:uid="{512AA00E-F60A-453F-977E-5037CA59A851}"/>
+    <hyperlink ref="F21" r:id="rId11" display="mailto:zhuoruming@elematec.com" xr:uid="{D486319A-80E7-4DBE-BD3E-A443478C2FC2}"/>
+    <hyperlink ref="G21" r:id="rId12" display="mailto:gavin@elematec.com;chenxuya@elematec.com;lijialing@elematec.com" xr:uid="{3AC0AFB0-6773-469B-B2EA-BF9F9876CACA}"/>
+    <hyperlink ref="F27" r:id="rId13" display="mailto:emma.wang@ellingtonpcb.com" xr:uid="{181CC703-CF3F-4030-AC75-597ACA5702E6}"/>
+    <hyperlink ref="G30" r:id="rId14" display="mailto:pmc_03@hayakawasz.com" xr:uid="{2019F01A-5138-4923-BCA8-DE6C22E72CE8}"/>
+    <hyperlink ref="G33" r:id="rId15" display="mailto:yiu@hoipo.com" xr:uid="{B9AA46F5-A64D-4FA2-8E55-65D46C56A888}"/>
+    <hyperlink ref="G36" r:id="rId16" display="mailto:EVE@utcircuits.com%20%3ceve@utcircuits.com%3e;%20UTPMC%20李荣%20%3cpmc@utcircuits.com" xr:uid="{AF677AF9-D749-4A54-9A16-C5106CBF2547}"/>
+    <hyperlink ref="F40" r:id="rId17" display="mailto:qa02@jitstech.com" xr:uid="{793AB632-A9F5-4428-BDC7-9A4553A63BB9}"/>
+    <hyperlink ref="G40" r:id="rId18" display="mailto:nancy.jiang@jitstech.com" xr:uid="{1D38CDF1-69DB-4BD9-A991-01AC5F8D31B1}"/>
+    <hyperlink ref="F41" r:id="rId19" display="mailto:skhe@dg.passivecomponent.com" xr:uid="{79C2C037-BB5B-4E10-A613-018850E9A736}"/>
+    <hyperlink ref="G41" r:id="rId20" display="mailto:caroldeng@dg.passivecomponent.com" xr:uid="{602FBCEC-E139-46CD-B0E7-85133A01F9D2}"/>
+    <hyperlink ref="F43" r:id="rId21" display="../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/TJVRN0XY/info@amami.com.cn;AMAMI: WuZhiLiang %3cqc@amami.com.cn" xr:uid="{2C69C672-169A-4764-8D18-1B717642670E}"/>
+    <hyperlink ref="G43" r:id="rId22" display="mailto:gyomu@amami.com.cn;shengguan@amami.com.cn;order@amami.com.cn;info@amami.com.cn" xr:uid="{86C32F40-C4EB-4DDB-A1F3-5226D8C45394}"/>
+    <hyperlink ref="F44" r:id="rId23" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{A9F7D05F-2E35-4F3C-A763-DF5ABC51BE02}"/>
+    <hyperlink ref="G44" r:id="rId24" display="mailto:Lily.li@kinwong.com%20%3cjiali.li@kinwong.com" xr:uid="{34D2A22E-CC47-4B53-B855-16A686C0601A}"/>
+    <hyperlink ref="G47" r:id="rId25" display="mailto:customerservice-cn@kyosha.com.hk" xr:uid="{07265332-77E3-4DA9-940C-FA488D702744}"/>
+    <hyperlink ref="F48" r:id="rId26" display="mailto:jufang.li@dupont.com" xr:uid="{8D504F07-DD74-4D06-B499-3D62E83CB234}"/>
+    <hyperlink ref="G49" r:id="rId27" display="mailto:pua.tiamtien@siix-global.com" xr:uid="{7690B231-6F25-4FA4-B0F0-2EC52E792B0E}"/>
+    <hyperlink ref="G50" r:id="rId28" display="mailto:victor@lte.com.tw" xr:uid="{B175F353-FB46-4D5D-BB5D-0D8BCF914BC7}"/>
+    <hyperlink ref="G55" r:id="rId29" display="mailto:tianyuan@meiko-elec.com" xr:uid="{317B32A5-9CD8-4AD2-98B4-D9363919B5A4}"/>
+    <hyperlink ref="G56" r:id="rId30" display="mailto:liu.ying2@mektec.nokgrp.com" xr:uid="{09D9198B-9B27-4D91-9E1E-153B7A15E6D5}"/>
+    <hyperlink ref="G59" r:id="rId31" display="mailto:lydia.lin@murata.com" xr:uid="{1484BE3A-F939-42A7-977A-745DD180FFB4}"/>
+    <hyperlink ref="G60" r:id="rId32" display="mailto:yasu_sano@musashi-denko.co.jp;bonniemusashi@gmail.com" xr:uid="{93A4450B-B008-4A4C-9BB6-54AD44FB80FD}"/>
+    <hyperlink ref="G63" r:id="rId33" display="mailto:yan.chan@nichicon.com," xr:uid="{1C5AC582-BB49-40A3-A13C-391C46FB3E5C}"/>
+    <hyperlink ref="G64" r:id="rId34" display="mailto:Fanto_Li@nipponexpress-necl.com.hk" xr:uid="{1730A765-40D9-47A4-A849-FBA6606300F2}"/>
+    <hyperlink ref="G65" r:id="rId35" display="mailto:ko-satou@os-electronics.co.jp" xr:uid="{947F303D-ED02-46A7-906D-EAD036AE1C68}"/>
+    <hyperlink ref="F69" r:id="rId36" display="mailto:wen_na@szplasess.com" xr:uid="{D68C3375-7B2D-44CF-B666-772FFC8E833C}"/>
+    <hyperlink ref="G70" r:id="rId37" display="mailto:fanny@portease.com" xr:uid="{4F644124-2E5E-4023-BF56-DB10F70AF269}"/>
+    <hyperlink ref="G71" r:id="rId38" display="mailto:billy_yang@rayben.com" xr:uid="{A9A8195C-13B5-46AF-BEAF-444C7EDB4BCE}"/>
+    <hyperlink ref="F72" r:id="rId39" display="mailto:qs_jx@redboard.com.cn" xr:uid="{64465CD5-528F-4C35-87D6-15844374D958}"/>
+    <hyperlink ref="G72" r:id="rId40" display="mailto:joe@redboard.com.cn" xr:uid="{0E8F1CAF-E0DC-424A-8938-C69770F30817}"/>
+    <hyperlink ref="G73" r:id="rId41" display="mailto:man001@riko.com.tw;%20'陳詩惠'%20%3cTPITD002@riko.com.tw" xr:uid="{46552D49-DC22-4F34-AFE1-FD7C3D38DC63}"/>
+    <hyperlink ref="G74" r:id="rId42" display="mailto:celinazhang@rohmsz.com.cn" xr:uid="{EB0C1660-B2EE-4C77-99CC-405E5153EECB}"/>
+    <hyperlink ref="F75" r:id="rId43" display="mailto:ynihei@rubycon.co.jp" xr:uid="{22AC6ECE-4BCF-4D3E-AD03-9A8055161D71}"/>
+    <hyperlink ref="G75" r:id="rId44" display="mailto:jessica@rubycon.co.jp;ranaluo@rubycon.cn.jp;akung@rubycon.co.jp;TAKAYUKI%20HARA%20%3cthara@rubycon.co.jp%3e;NAGI%20WONG%20%3ctsubame@rubycon.co.jp" xr:uid="{2355A805-D807-40FA-9022-AB0F5B86F4B7}"/>
+    <hyperlink ref="G78" r:id="rId45" display="mailto:kiki@santazh.com" xr:uid="{501FCEA6-017D-4C1D-A138-BCD1AECD05CA}"/>
+    <hyperlink ref="F79" r:id="rId46" display="mailto:noah@sei-den.co.jpsy-jin%20%3csy-jin@vip.163.com" xr:uid="{F93653BF-9797-44FF-A8F9-C729B032EE37}"/>
+    <hyperlink ref="G79" r:id="rId47" display="mailto:Ben@seibumax.com;May@seibumax.com;SeibuMax%20-%20Mr%20Tsukioka%20%3ctakashi-tukioka@sei-den.co.jp%3e;西武MAX%20徐先生%20%3cben@seibumax.com" xr:uid="{12C859C5-5CBC-407E-8657-5251999D71D1}"/>
+    <hyperlink ref="F80" r:id="rId48" display="mailto:zhuzhijun@skensetsu.com" xr:uid="{812DE0C1-5307-4ABE-94EB-B8F47615DEF5}"/>
+    <hyperlink ref="F81" r:id="rId49" display="mailto:luolin@tokyoparts.com.cn" xr:uid="{669B68F5-340A-44E3-B635-031D43AA8B40}"/>
+    <hyperlink ref="G81" r:id="rId50" display="mailto:lijuan@tokyoparts.com.cn;chuina@tokyoparts.com.cn;营业-郑湘雯%20%3czhengxiangwen@tokyoparts.com.cn" xr:uid="{B644AB20-3522-47DC-983E-38CEFD3B3D0F}"/>
+    <hyperlink ref="F83" r:id="rId51" display="mailto:yanggen225810@163.com" xr:uid="{15112080-9867-4B82-BD29-02E77710022D}"/>
+    <hyperlink ref="G83" r:id="rId52" display="mailto:meihua.jiang@jingzhicheng.com.cn;高主管%20%3cpinguan-03@jingzhicheng.com.cn%3e;%20王厂长wangpin%20%3cwangpin@jingzhicheng.com.cn%3e;%20精之成杨根'R%20%3cyanggen225810@163.com" xr:uid="{D2BF3E9F-4C17-4DDC-86C8-10EBFEE427AF}"/>
+    <hyperlink ref="F84" r:id="rId53" display="mailto:yangwh@shimoda.cn" xr:uid="{D7EA3ED5-98BB-468F-9233-D727227E261F}"/>
+    <hyperlink ref="G84" r:id="rId54" display="mailto:jinyinghua@shimoda.cn;jinyinghua@shimoda.cn" xr:uid="{14ED0798-5119-471B-B351-38B1356151D9}"/>
+    <hyperlink ref="F86" r:id="rId55" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{C833C052-BE6C-46A5-BC32-25B3D0E283CB}"/>
+    <hyperlink ref="G86" r:id="rId56" display="mailto:linyanxia@shiraidenshihkg.com" xr:uid="{C2C9D6D5-53A1-458B-849B-79BA7070AE54}"/>
+    <hyperlink ref="G87" r:id="rId57" display="mailto:lanjiahong@fujipcb.cn" xr:uid="{0D8F2F49-4744-4BBC-84FB-44D24245A6CF}"/>
+    <hyperlink ref="G90" r:id="rId58" display="mailto:jiaolan.luo@siix-global.com" xr:uid="{591ACFBB-2D26-463D-98DA-69138390560C}"/>
+    <hyperlink ref="G92" r:id="rId59" display="mailto:jennifer.huang@somacisgraphic.com" xr:uid="{1B8E8427-2C4B-4B69-B974-E785FA813F81}"/>
+    <hyperlink ref="G94" r:id="rId60" display="mailto:Rouhul.Shah@sugo.com.hk;eva.lee@sugo.com.hk;miko.chow@sugo.com.hk;Sugo_Camily.Pun%20%3ccamily@sugo.com.hk" xr:uid="{84525B4C-C80A-4406-8F3C-9A7D6FAB4E47}"/>
+    <hyperlink ref="F96" r:id="rId61" display="mailto:lisa@taiohm.com.tw" xr:uid="{8FF4CD4A-BB71-4642-8B52-4FEFED10267D}"/>
+    <hyperlink ref="F97" r:id="rId62" display="mailto:pekkie@tkk.corp.com.hk" xr:uid="{D4F6174D-5922-498C-A864-1C4769E59E60}"/>
+    <hyperlink ref="G97" r:id="rId63" display="mailto:emily_ho@tkk.corp.com.hk;pekkie@tkk.corp.com.hk" xr:uid="{219708AE-F2D7-493D-AA57-2FC45F24DECA}"/>
+    <hyperlink ref="G98" r:id="rId64" display="mailto:Lucy.Wang@tdk.com" xr:uid="{36BCACA5-E54C-480D-B8FB-761056C05F8D}"/>
+    <hyperlink ref="G99" r:id="rId65" display="mailto:Vicky.Mo@tdk.com" xr:uid="{D3A3FBA7-CC5E-4A13-AFB8-CBA7CD931055}"/>
+    <hyperlink ref="G103" r:id="rId66" display="mailto:yuanyifei@tomitadenki.com.cn" xr:uid="{EAC6F21C-E3CE-4CA8-9FE7-6A5950A13A0D}"/>
+    <hyperlink ref="G105" r:id="rId67" display="mailto:thl-so@torexsemi.com.hk" xr:uid="{FAABCB55-D2DD-467D-A827-C3B3751594AF}"/>
+    <hyperlink ref="F106" r:id="rId68" display="mailto:Joe.yung@toyokizai.com.hk" xr:uid="{DE928940-E3D1-4315-8DC0-A8E1F6D962E4}"/>
+    <hyperlink ref="G106" r:id="rId69" display="mailto:kawarada@toyokizai.com.hk;joyce@toyokizai.com.hk" xr:uid="{D820FB04-2A3A-4F99-8D5B-F92CB524CC90}"/>
+    <hyperlink ref="G107" r:id="rId70" display="mailto:water@troishk.com.hk" xr:uid="{CEF4FB26-3E0A-4210-84E9-8680E3BABDA5}"/>
+    <hyperlink ref="F109" r:id="rId71" display="mailto:cao-jing@umccn.com" xr:uid="{0F9FC6D5-9BCF-43CE-807C-91A503162544}"/>
+    <hyperlink ref="F115" r:id="rId72" display="mailto:caiwu@shinshinyue.com" xr:uid="{C1C6CA33-AC2C-47E7-9951-C6A5FEA4978D}"/>
+    <hyperlink ref="G116" r:id="rId73" display="mailto:ylin06@y-lin.com" xr:uid="{584C7E71-B96E-4AFC-91F7-EB5EDE256457}"/>
+    <hyperlink ref="G117" r:id="rId74" display="mailto:kenlam@yantat.com;%20daveho@sz-yantat.com" xr:uid="{3C276E80-6F6C-4468-B196-F6B6E7CF9556}"/>
+    <hyperlink ref="G5" r:id="rId75" display="mailto:sherry.xiao@avnet.com" xr:uid="{7856456F-923D-4D25-9E16-FF0785E77353}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>